--- a/wmc-metadata-downloader/wmc-inputfiles.xlsx
+++ b/wmc-metadata-downloader/wmc-inputfiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KB-OPEN\github-repos\__wikimedia-handy-tools\wmc-metadata-downloader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KB-OPEN\github-repos\wikimedia-various-tools\wmc-metadata-downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F742A-BE54-42E5-88B2-6A686D62E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA97C4-A2F0-40B6-8565-68AAF3E31E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files-Manual" sheetId="1" r:id="rId1"/>
@@ -1679,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
